--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_Sprint1\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>Shaik Khaleel</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>New Transmittal from Automation</t>
   </si>
   <si>
-    <t>Anupama D. Thumrugoti</t>
-  </si>
-  <si>
     <t>TxType</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>BrowseDocument.docx</t>
+  </si>
+  <si>
+    <t>AutoTestAdmin</t>
+  </si>
+  <si>
+    <t>AutoTestUser</t>
   </si>
 </sst>
 </file>
@@ -523,84 +523,84 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_Sprint1\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>To</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>AutoTestUser</t>
+  </si>
+  <si>
+    <t>AutoTestAdmin@@AutoTestUser</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,6 +606,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>To</t>
   </si>
@@ -502,7 +502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -622,6 +624,9 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
       <c r="M3" t="s">
         <v>15</v>
       </c>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
+    <sheet name="Transmittals_New_ActionRequired" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <t>To</t>
   </si>
@@ -66,9 +67,6 @@
     <t>Request for Information</t>
   </si>
   <si>
-    <t>Comments for Request for Information</t>
-  </si>
-  <si>
     <t>AttachDocuments</t>
   </si>
   <si>
@@ -100,6 +98,15 @@
   </si>
   <si>
     <t>AutoTestAdmin@@AutoTestUser</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>SPInstall</t>
+  </si>
+  <si>
+    <t>Submission</t>
   </si>
 </sst>
 </file>
@@ -500,11 +507,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -540,19 +545,19 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -569,10 +574,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -587,30 +592,30 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
         <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -624,11 +629,199 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
       <c r="L3" t="s">
         <v>5</v>
       </c>
       <c r="M3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
@@ -15,12 +15,12 @@
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
     <sheet name="Transmittals_New_ActionRequired" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>To</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Forward</t>
-  </si>
-  <si>
-    <t>SPInstall</t>
   </si>
   <si>
     <t>Submission</t>
@@ -507,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,9 +573,6 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -610,12 +604,12 @@
         <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -629,26 +623,11 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
       <c r="L3" t="s">
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -667,6 +646,21 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
       <c r="L4" t="s">
         <v>5</v>
       </c>
@@ -677,12 +671,12 @@
         <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -703,10 +697,71 @@
         <v>26</v>
       </c>
       <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
         <v>27</v>
       </c>
-      <c r="O5" t="s">
-        <v>28</v>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
   <si>
     <t>To</t>
   </si>
@@ -104,6 +104,21 @@
   </si>
   <si>
     <t>Submission</t>
+  </si>
+  <si>
+    <t>DelegateTo</t>
+  </si>
+  <si>
+    <t>Delegate- Message for New transmittal</t>
+  </si>
+  <si>
+    <t>Delegate</t>
+  </si>
+  <si>
+    <t>Reply All- Message for New transmittal</t>
+  </si>
+  <si>
+    <t>ReplyAll</t>
   </si>
 </sst>
 </file>
@@ -504,9 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -514,15 +531,16 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,10 +584,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -607,7 +628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -630,7 +651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -670,11 +691,11 @@
       <c r="N4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -699,11 +720,11 @@
       <c r="N5" t="s">
         <v>24</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -741,7 +762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -761,6 +782,64 @@
         <v>5</v>
       </c>
       <c r="M7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="45">
   <si>
     <t>To</t>
   </si>
@@ -119,6 +119,42 @@
   </si>
   <si>
     <t>ReplyAll</t>
+  </si>
+  <si>
+    <t>RefID</t>
+  </si>
+  <si>
+    <t>LATFLD-61</t>
+  </si>
+  <si>
+    <t>LATFLD-62</t>
+  </si>
+  <si>
+    <t>LATFLD-60</t>
+  </si>
+  <si>
+    <t>LATFLD-59</t>
+  </si>
+  <si>
+    <t>LATFLD-58</t>
+  </si>
+  <si>
+    <t>LATFLD-69</t>
+  </si>
+  <si>
+    <t>LATFLD-63</t>
+  </si>
+  <si>
+    <t>LATFLD-56</t>
+  </si>
+  <si>
+    <t>LATFLD-6</t>
+  </si>
+  <si>
+    <t>LATFLD-57</t>
+  </si>
+  <si>
+    <t>LATFLD-64</t>
   </si>
 </sst>
 </file>
@@ -519,327 +555,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>5</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>5</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>5</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>29</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>30</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>24</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M10" t="s">
         <v>31</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N10" t="s">
         <v>32</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -852,109 +1005,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_S5_NR\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="46">
   <si>
     <t>To</t>
   </si>
@@ -155,13 +155,16 @@
   </si>
   <si>
     <t>LATFLD-64</t>
+  </si>
+  <si>
+    <t>Mess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -176,6 +179,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -206,9 +215,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -570,15 +582,16 @@
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -619,19 +632,22 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -665,14 +681,18 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>1 of 10 Message for New transmittal</v>
+      </c>
+      <c r="N2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -691,14 +711,18 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>2 of 10 Message for New transmittal</v>
+      </c>
+      <c r="N3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -732,20 +756,24 @@
       <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>3 of 10 Message for New transmittal</v>
+      </c>
+      <c r="N4" t="s">
         <v>5</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -764,20 +792,24 @@
       <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>4 of 10 Message for New transmittal</v>
+      </c>
+      <c r="N5" t="s">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>26</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -811,14 +843,18 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>5 of 10 Message for New transmittal</v>
+      </c>
+      <c r="N6" t="s">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -837,14 +873,18 @@
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>6 of 10 Message for New transmittal</v>
+      </c>
+      <c r="N7" t="s">
         <v>5</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -863,20 +903,24 @@
       <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>7 of 10 Message for New transmittal</v>
+      </c>
+      <c r="N8" t="s">
         <v>29</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>30</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -907,20 +951,24 @@
       <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>8 of 10 Message for New transmittal</v>
+      </c>
+      <c r="N9" t="s">
         <v>29</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>30</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -942,17 +990,21 @@
       <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>9 of 10 Message for New transmittal</v>
+      </c>
+      <c r="N10" t="s">
         <v>31</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -986,19 +1038,23 @@
       <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>10 of 10 Message for New transmittal</v>
+      </c>
+      <c r="N11" t="s">
         <v>31</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_S5_NR\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
     <sheet name="Transmittals_New_ActionRequired" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -712,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N3)</f>
         <v>2 of 10 Message for New transmittal</v>
       </c>
       <c r="N3" t="s">
@@ -757,7 +757,7 @@
         <v>22</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N4)</f>
         <v>3 of 10 Message for New transmittal</v>
       </c>
       <c r="N4" t="s">
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N5)</f>
         <v>4 of 10 Message for New transmittal</v>
       </c>
       <c r="N5" t="s">
@@ -844,7 +844,7 @@
         <v>22</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N6)</f>
         <v>5 of 10 Message for New transmittal</v>
       </c>
       <c r="N6" t="s">
@@ -874,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N7)</f>
         <v>6 of 10 Message for New transmittal</v>
       </c>
       <c r="N7" t="s">
@@ -904,8 +904,8 @@
         <v>14</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
-        <v>7 of 10 Message for New transmittal</v>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N8)</f>
+        <v>7 of 10 Delegate- Message for New transmittal</v>
       </c>
       <c r="N8" t="s">
         <v>29</v>
@@ -952,8 +952,8 @@
         <v>20</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
-        <v>8 of 10 Message for New transmittal</v>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N9)</f>
+        <v>8 of 10 Delegate- Message for New transmittal</v>
       </c>
       <c r="N9" t="s">
         <v>29</v>
@@ -991,8 +991,8 @@
         <v>14</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
-        <v>9 of 10 Message for New transmittal</v>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N10)</f>
+        <v>9 of 10 Reply All- Message for New transmittal</v>
       </c>
       <c r="N10" t="s">
         <v>31</v>
@@ -1039,8 +1039,8 @@
         <v>20</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
-        <v>10 of 10 Message for New transmittal</v>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N11)</f>
+        <v>10 of 10 Reply All- Message for New transmittal</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-RequestForInformation.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
@@ -15,12 +15,15 @@
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
     <sheet name="Transmittals_New_ActionRequired" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
   <si>
     <t>To</t>
   </si>
@@ -79,25 +82,7 @@
     <t>AttachSupportDocumentName</t>
   </si>
   <si>
-    <t>Document Register</t>
-  </si>
-  <si>
-    <t>Test 1 ta.docx</t>
-  </si>
-  <si>
     <t>ReviewDocument</t>
-  </si>
-  <si>
-    <t>BrowseDocument.docx</t>
-  </si>
-  <si>
-    <t>AutoTestAdmin</t>
-  </si>
-  <si>
-    <t>AutoTestUser</t>
-  </si>
-  <si>
-    <t>AutoTestAdmin@@AutoTestUser</t>
   </si>
   <si>
     <t>Forward</t>
@@ -236,6 +221,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="user_credentials"/>
+      <sheetName val="DocumentDetails"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>AutoTestAdmin</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>AutoTestUser</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Document Register</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Test 1 ta.docx</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Test 1 ta.docx</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>BrowseDocument.docx</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,26 +606,25 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
     <col min="13" max="13" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="14" max="14" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="16" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -626,13 +657,13 @@
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -641,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>11</v>
@@ -649,10 +680,11 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="B2" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -666,20 +698,25 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
+      <c r="H2" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I2" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J2" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K2" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="L2" t="str">
+        <f>[1]DocumentDetails!$B$5</f>
+        <v>BrowseDocument.docx</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
@@ -689,15 +726,16 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="B3" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -719,15 +757,16 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="B4" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -741,20 +780,25 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
+      <c r="H4" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I4" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J4" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K4" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="L4" t="str">
+        <f>[1]DocumentDetails!$B$5</f>
+        <v>BrowseDocument.docx</v>
       </c>
       <c r="M4" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N4)</f>
@@ -764,21 +808,23 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="P4" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B5" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -800,21 +846,23 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="P5" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="B6" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -828,20 +876,25 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
+      <c r="H6" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I6" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J6" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K6" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="L6" t="str">
+        <f>[1]DocumentDetails!$B$5</f>
+        <v>BrowseDocument.docx</v>
       </c>
       <c r="M6" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N6)</f>
@@ -851,15 +904,16 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="B7" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -881,15 +935,16 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B8" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -908,24 +963,26 @@
         <v>7 of 10 Delegate- Message for New transmittal</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" t="s">
         <v>24</v>
       </c>
+      <c r="Q8" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
+      </c>
       <c r="R8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="B9" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -939,44 +996,51 @@
       <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
+      <c r="H9" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I9" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J9" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K9" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M9" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N9)</f>
         <v>8 of 10 Delegate- Message for New transmittal</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" t="s">
         <v>24</v>
       </c>
+      <c r="Q9" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
+      </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="B10" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C10" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -995,24 +1059,26 @@
         <v>9 of 10 Reply All- Message for New transmittal</v>
       </c>
       <c r="N10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="B11" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C11" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1026,36 +1092,43 @@
       <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
+      <c r="H11" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I11" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J11" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K11" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M11" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N11)</f>
         <v>10 of 10 Reply All- Message for New transmittal</v>
       </c>
       <c r="N11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="I2 I4 I6 I9 I11" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1063,9 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -1083,7 +1154,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1116,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -1133,13 +1204,15 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="B2" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C2" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1153,26 +1226,31 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
+      <c r="H2" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I2" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J2" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K2" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="L2" t="str">
+        <f>[1]DocumentDetails!$B$5</f>
+        <v>BrowseDocument.docx</v>
       </c>
       <c r="M2" t="s">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
